--- a/villa near Badung, Bali, Indonesia_surface_search.xlsx
+++ b/villa near Badung, Bali, Indonesia_surface_search.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pradha Villas Seminyak</t>
+          <t>Harcourts Purba Canggu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,26 +491,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(106)</t>
+          <t>(19)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4-star hotel</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Luxe hotel with private pools &amp; dining</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pradha+Villas+Seminyak/data=!4m10!3m9!1s0x2dd24710d6b57ead:0x4069c0beb0888e95!5m2!4m1!1i2!8m2!3d-8.6820427!4d115.1551502!16s%2Fg%2F1tfthmdh!19sChIJrX611hBH0i0RlY6IsL7AaUA?authuser=0&amp;hl=en&amp;rclk=1</t>
-        </is>
-      </c>
+          <t>Real estate agent</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Jl. Pemelisan Agung</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -518,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Villa Kamehameha</t>
+          <t>Villa Dayak</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,7 +524,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(18)</t>
+          <t>(24)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -537,15 +533,11 @@
           <t>Villa</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Gg. Telaga Waja No.101X</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Kamehameha/data=!4m7!3m6!1s0x2dd24713d5b3e215:0xefd4081a26c87211!8m2!3d-8.6793063!4d115.1565109!16s%2Fg%2F11fy_5rs9_!19sChIJFeKz1RNH0i0REXLIJhoI1O8?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Dayak/data=!4m10!3m9!1s0x2dd24720d97c46b3:0x7b45f1679bb7b5c9!5m2!4m1!1i2!8m2!3d-8.6914546!4d115.1700908!16s%2Fg%2F11cjj458t5!19sChIJs0Z82SBH0i0RybW3m2fxRXs?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
@@ -555,30 +547,34 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Villa Lulito</t>
+          <t>The Awandari Villas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(11)</t>
+          <t>(61)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Villa</t>
+          <t>Hotel</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Understated villas with outdoor pools</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Lulito/data=!4m10!3m9!1s0x2dd2471a97fd5589:0xf16cd531f71fefb2!5m2!4m1!1i2!8m2!3d-8.6853819!4d115.1545497!16s%2Fg%2F11c3k94v06!19sChIJiVX9lxpH0i0Rsu8f9zHVbPE?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/The+Awandari+Villas/data=!4m10!3m9!1s0x2dd247bdf0be5cf3:0xc22c06e9c96b5f40!5m2!4m1!1i2!8m2!3d-8.6748492!4d115.1526072!16s%2Fg%2F11j1h3tx0l!19sChIJ81y-8L1H0i0RQF9ryekGLMI?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
@@ -588,17 +584,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Villa Jajaliluna</t>
+          <t>Villa Maviba Luxury Villa for Rent in Seminyak</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(24)</t>
+          <t>(40)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -611,7 +607,7 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Jajaliluna/data=!4m10!3m9!1s0x2dd247104a21d83d:0x7746b50490bbc7f6!5m2!4m1!1i2!8m2!3d-8.6853977!4d115.1550932!16s%2Fg%2F1pzsqtvr6!19sChIJPdghShBH0i0R9se7kAS1Rnc?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Maviba+Luxury+Villa+for+Rent+in+Seminyak/data=!4m10!3m9!1s0x2dd2472669b16f85:0x418e94bcedb0d6e0!5m2!4m1!1i2!8m2!3d-8.6893472!4d115.17506!16s%2Fg%2F11f3v927hr!19sChIJhW-xaSZH0i0R4Naw7byUjkE?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
@@ -621,34 +617,34 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The Awandari Villas</t>
+          <t>Pradha Villas Seminyak</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(61)</t>
+          <t>(106)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hotel</t>
+          <t>4-star hotel</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Understated villas with outdoor pools</t>
+          <t>Luxe hotel with private pools &amp; dining</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/The+Awandari+Villas/data=!4m10!3m9!1s0x2dd247bdf0be5cf3:0xc22c06e9c96b5f40!5m2!4m1!1i2!8m2!3d-8.6748492!4d115.1526072!16s%2Fg%2F11j1h3tx0l!19sChIJ81y-8L1H0i0RQF9ryekGLMI?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Pradha+Villas+Seminyak/data=!4m10!3m9!1s0x2dd24710d6b57ead:0x4069c0beb0888e95!5m2!4m1!1i2!8m2!3d-8.6820427!4d115.1551502!16s%2Fg%2F1tfthmdh!19sChIJrX611hBH0i0RlY6IsL7AaUA?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
@@ -658,7 +654,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Saudara Villas</t>
+          <t>The Kumpi Villas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -668,24 +664,24 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(31)</t>
+          <t>(78)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Villa</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Gg. Kahyangan No.6</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>4-star hotel</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Polished hotel with breakfast</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Saudara+Villas/data=!4m7!3m6!1s0x2dd2471af0b5acc7:0xa5af88e0e38e729f!8m2!3d-8.6865621!4d115.1556931!16s%2Fg%2F11c5sbmd4w!19sChIJx6y18BpH0i0Rn3KO4-CIr6U?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/The+Kumpi+Villas/data=!4m10!3m9!1s0x2dd247198601cf37:0x1e14195143a08a1b!5m2!4m1!1i2!8m2!3d-8.6862715!4d115.1598495!16s%2Fg%2F11b73r3v_t!19sChIJN88BhhlH0i0RG4qgQ1EZFB4?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
@@ -695,17 +691,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Villa Dayak</t>
+          <t>Balicosy Villa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(24)</t>
+          <t>(160)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -715,10 +711,14 @@
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Chic option with kitchens &amp; pools</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Dayak/data=!4m10!3m9!1s0x2dd24720d97c46b3:0x7b45f1679bb7b5c9!5m2!4m1!1i2!8m2!3d-8.6914546!4d115.1700908!16s%2Fg%2F11cjj458t5!19sChIJs0Z82SBH0i0RybW3m2fxRXs?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Balicosy+Villa/data=!4m10!3m9!1s0x2dd246e00b26cc1f:0x1c410316c941a0de!5m2!4m1!1i2!8m2!3d-8.7031313!4d115.1736905!16s%2Fg%2F11xc92jc2!19sChIJH8wmC-BG0i0R3qBByRYDQRw?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
@@ -728,17 +728,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Luxury Villas Bali - Nyaman Villas</t>
+          <t>Casamaya Villa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(59)</t>
+          <t>(24)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -751,7 +751,7 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Luxury+Villas+Bali+-+Nyaman+Villas/data=!4m10!3m9!1s0x2dd2471a21bd9fd5:0x8f515250d65457ed!5m2!4m1!1i2!8m2!3d-8.6861616!4d115.1591986!16s%2Fg%2F1tjbjq1t!19sChIJ1Z-9IRpH0i0R7VdU1lBSUY8?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Casamaya+Villa/data=!4m10!3m9!1s0x2dd246db1b16120f:0x220562eda4c2cc68!5m2!4m1!1i2!8m2!3d-8.701747!4d115.1736027!16s%2Fg%2F11f5ly8v0t!19sChIJDxIWG9tG0i0RaMzCpO1iBSI?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
@@ -761,17 +761,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>VILLA KAYU AYA BALI</t>
+          <t>Villa Massilia Bali</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(3)</t>
+          <t>(74)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -780,15 +780,15 @@
           <t>Villa</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Jl. Kayu Jati I Jl. Petitenget No.23</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Posh tropical villas &amp; a private chef</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/VILLA+KAYU+AYA+BALI/data=!4m7!3m6!1s0x2dd24710332e5d75:0x1470119fc11ac4f0!8m2!3d-8.6818899!4d115.1539819!16s%2Fg%2F11bwldcsz2!19sChIJdV0uMxBH0i0R8MQawZ8RcBQ?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Massilia+Bali/data=!4m10!3m9!1s0x2dd2471be2e8dae5:0xee09832a84387efd!5m2!4m1!1i2!8m2!3d-8.6869424!4d115.1597999!16s%2Fg%2F1hdz9_f46!19sChIJ5dro4htH0i0R_X44hCqDCe4?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
@@ -798,17 +798,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bali Villa 4 Bedroom</t>
+          <t>The Calna Villa Bali</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(5)</t>
+          <t>(50)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -821,7 +821,7 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Bali+Villa+4+Bedroom/data=!4m10!3m9!1s0x2dd247131ec82db9:0x391929f4ae7c95d!5m2!4m1!1i2!8m2!3d-8.6829993!4d115.1567597!16s%2Fg%2F1xflmqzz!19sChIJuS3IHhNH0i0RXcnnSp-SkQM?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/The+Calna+Villa+Bali/data=!4m10!3m9!1s0x2dd2472a8e0e81fb:0x3dbc301148739260!5m2!4m1!1i2!8m2!3d-8.7218564!4d115.1797729!16s%2Fg%2F11qqsd3y_6!19sChIJ-4EOjipH0i0RYJJzSBEwvD0?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
@@ -831,30 +831,34 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Villa Shambala</t>
+          <t>Beautiful Bali Villas</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(18)</t>
+          <t>(261)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Villa</t>
+          <t>4-star hotel</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Polished villas with private pools</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Shambala/data=!4m10!3m9!1s0x2dd24719810a03f5:0x777ba4e92edb1484!5m2!4m1!1i2!8m2!3d-8.6867097!4d115.1592329!16s%2Fg%2F1s04g8kpj!19sChIJ9QMKgRlH0i0RhBTbLumke3c?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Beautiful+Bali+Villas/data=!4m10!3m9!1s0x2dd246c496623433:0xb310327bbee0856a!5m2!4m1!1i2!8m2!3d-8.7048341!4d115.1730192!16s%2Fg%2F1q6d35m8t!19sChIJMzRilsRG0i0RaoXgvnsyELM?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
@@ -864,17 +868,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Eshara Villas</t>
+          <t>Turquoise Villa Seminyak Bali</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(19)</t>
+          <t>(47)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -883,11 +887,15 @@
           <t>Villa</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Jalan Drupadi Gang 108</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Eshara+Villas/data=!4m10!3m9!1s0x2dd2471bce07ceff:0x2870b92738aad95c!5m2!4m1!1i2!8m2!3d-8.68683!4d115.15868!16s%2Fg%2F1q5gm_f1g!19sChIJ_84HzhtH0i0RXNmqOCe5cCg?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Turquoise+Villa+Seminyak+Bali/data=!4m7!3m6!1s0x2dd247a54b5f2191:0xb4c75fd98e8cb583!8m2!3d-8.6892585!4d115.1626531!16s%2Fg%2F11fl9ggmls!19sChIJkSFfS6VH0i0Rg7WMjtlfx7Q?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
@@ -897,17 +905,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Villa Lilibel</t>
+          <t>Villa Kudus</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(32)</t>
+          <t>(17)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -916,15 +924,11 @@
           <t>Villa</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Jl. Kayu Aya Oberoi No.14 B</t>
-        </is>
-      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Lilibel/data=!4m7!3m6!1s0x2dd2471a9d6dd743:0xc965a8121d62c052!8m2!3d-8.6846608!4d115.1554545!16s%2Fg%2F1q5gqg_s6!19sChIJQ9dtnRpH0i0RUsBiHRKoZck?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Kudus/data=!4m10!3m9!1s0x2dd2479d6bee1b15:0x3c8baaa839e4187!5m2!4m1!1i2!8m2!3d-8.6663675!4d115.1408843!16s%2Fg%2F1s04d7k3l!19sChIJFRvua51H0i0Rh0Geg6q6yAM?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
@@ -934,17 +938,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Villa De Suma</t>
+          <t>OWN VILLA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(13)</t>
+          <t>(52)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -957,7 +961,7 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+De+Suma/data=!4m10!3m9!1s0x2dd24711d770e7f1:0xa2f4c496647100a9!5m2!4m1!1i2!8m2!3d-8.6830787!4d115.1553221!16s%2Fg%2F1jkywc8d6!19sChIJ8edw1xFH0i0RqQBxZJbE9KI?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/OWN+VILLA/data=!4m10!3m9!1s0x2dd2477067fada31:0xd4bcf06c85587559!5m2!4m1!1i2!8m2!3d-8.6658167!4d115.151076!16s%2Fg%2F11f_s8_zjt!19sChIJMdr6Z3BH0i0RWXVYhWzwvNQ?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
@@ -967,17 +971,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Divine Villas Bali</t>
+          <t>Villa Bens Kenanga</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(3)</t>
+          <t>(23)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -990,7 +994,7 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Divine+Villas+Bali/data=!4m10!3m9!1s0x2dd2470d9544d843:0x5126214ea5b24a7!5m2!4m1!1i2!8m2!3d-8.678672!4d115.1513393!16s%2Fg%2F1hm6d094p!19sChIJQ9hElQ1H0i0RpyRb6hRiEgU?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Bens+Kenanga/data=!4m10!3m9!1s0x2dd247d70c94f0f3:0x44073ff179444198!5m2!4m1!1i2!8m2!3d-8.6710211!4d115.1686569!16s%2Fg%2F11j0qn6b66!19sChIJ8_CUDNdH0i0RmEFEefE_B0Q?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
@@ -1000,17 +1004,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Villa Seminyak William</t>
+          <t>Desa Di Bali Villas</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(22)</t>
+          <t>(61)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1023,7 +1027,7 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Seminyak+William/data=!4m10!3m9!1s0x2dd24719b5b0ff45:0x70dabf5162f151d1!5m2!4m1!1i2!8m2!3d-8.6812461!4d115.1535688!16s%2Fg%2F11h0_k9v6m!19sChIJRf-wtRlH0i0R0VHxYlG_2nA?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Desa+Di+Bali+Villas/data=!4m10!3m9!1s0x2dd247c1fd507089:0x73bef71e17af1edc!5m2!4m1!1i2!8m2!3d-8.6530971!4d115.1764028!16s%2Fg%2F11h_cd3t0q!19sChIJiXBQ_cFH0i0R3B6vFx73vnM?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
@@ -1033,17 +1037,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Asrina Villas</t>
+          <t>Ambermoon Villa</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(19)</t>
+          <t>(50)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1056,7 +1060,7 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Asrina+Villas/data=!4m10!3m9!1s0x2dd2472a00b7d9db:0x33c6601dac70e5f9!5m2!4m1!1i2!8m2!3d-8.6866386!4d115.1556112!16s%2Fg%2F11fr3dgdw8!19sChIJ29m3ACpH0i0R-eVwrB1gxjM?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Ambermoon+Villa/data=!4m10!3m9!1s0x2dd247273370e715:0x659007a15aca0114!5m2!4m1!1i2!8m2!3d-8.6920937!4d115.1711454!16s%2Fg%2F11bxf6sy7w!19sChIJFedwMydH0i0RFAHKWqEHkGU?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
@@ -1066,17 +1070,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Villa Lucia Seminyak</t>
+          <t>Jukung Villas Kuta</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(23)</t>
+          <t>(17)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1089,7 +1093,7 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Lucia+Seminyak/data=!4m10!3m9!1s0x2dd2471c0bc7c22f:0xad159443f55a9201!5m2!4m1!1i2!8m2!3d-8.6896576!4d115.1581027!16s%2Fg%2F11c705wq1t!19sChIJL8LHCxxH0i0RAZJa9UOUFa0?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Jukung+Villas+Kuta/data=!4m10!3m9!1s0x2dd247bfa3c28a87:0xeb15b754a6d9c7d9!5m2!4m1!1i2!8m2!3d-8.7189273!4d115.1729049!16s%2Fg%2F11gmyh55yt!19sChIJh4rCo79H0i0R2cfZplS3Fes?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
@@ -1099,17 +1103,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>K Villa Seminyak by Premier Hospitality Asia</t>
+          <t>Aqilah Villa</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>(23)</t>
+          <t>(90)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1118,19 +1122,11 @@
           <t>Villa</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Jl. Pangkung Sari Oberoi</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Luxury lodging with kitchens &amp; pools</t>
-        </is>
-      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/K+Villa+Seminyak+by+Premier+Hospitality+Asia/data=!4m7!3m6!1s0x2dd24716b8c96217:0xa440edf23580dcbe!8m2!3d-8.6801869!4d115.1604893!16s%2Fg%2F11b63w1rvq!19sChIJF2LJuBZH0i0RvtyANfLtQKQ?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Aqilah+Villa/data=!4m10!3m9!1s0x2dd2474bf00aae57:0x52aef7e463e6fbab!5m2!4m1!1i2!8m2!3d-8.7018952!4d115.1771864!16s%2Fg%2F11fj3wwnlx!19sChIJV64K8EtH0i0Rq_vmY-T3rlI?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
@@ -1140,17 +1136,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>villa selog seminyak</t>
+          <t>Radea Villa - Private Pool Villa</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>(55)</t>
+          <t>(61)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1159,35 +1155,31 @@
           <t>Villa</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Jl. Pangkung Sari</t>
-        </is>
-      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/villa+selog+seminyak/data=!4m7!3m6!1s0x2dd2471414d7ccad:0x9122f2e4d411478b!8m2!3d-8.6783721!4d115.1597645!16s%2Fg%2F11ckx2nk5g!19sChIJrczXFBRH0i0Ri0cR1OTyIpE?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Radea+Villa+-+Private+Pool+Villa/data=!4m10!3m9!1s0x2dd2472d0e63e135:0xab4a40a4434713dd!5m2!4m1!1i2!8m2!3d-8.6589687!4d115.1545616!16s%2Fg%2F11h88nmphy!19sChIJNeFjDi1H0i0R3RNHQ6RASqs?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Villa Goya</t>
+          <t>Eight Palms Villa</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(10)</t>
+          <t>(93)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1196,72 +1188,68 @@
           <t>Villa</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>8576+FHV, Gg. Kahyangan</t>
-        </is>
-      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Goya/data=!4m7!3m6!1s0x2dd2474be8a3098d:0x34a382b3062d753c!8m2!3d-8.6862582!4d115.1614244!16s%2Fg%2F11h0bv6hhr!19sChIJjQmj6EtH0i0RPHUtBrOCozQ?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Eight+Palms+Villa/data=!4m10!3m9!1s0x2dd2476896eae159:0x6a99e855da6e9469!5m2!4m1!1i2!8m2!3d-8.7021048!4d115.173687!16s%2Fg%2F11qy_7wcb3!19sChIJWeHqlmhH0i0RaZRu2lXomWo?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hu'u Villas Bali</t>
+          <t>villa selog seminyak</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>(94)</t>
+          <t>(55)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5-star hotel</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Chic apartment hotel with private pools</t>
-        </is>
-      </c>
+          <t>Villa</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Jl. Pangkung Sari</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Hu'u+Villas+Bali/data=!4m10!3m9!1s0x2dd2470e0f343bf5:0x802d548b53993b9c!5m2!4m1!1i2!8m2!3d-8.6800852!4d115.1526673!16s%2Fg%2F11b60rrrs7!19sChIJ9Ts0Dw5H0i0RnDuZU4tULYA?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/villa+selog+seminyak/data=!4m7!3m6!1s0x2dd2471414d7ccad:0x9122f2e4d411478b!8m2!3d-8.6783721!4d115.1597645!16s%2Fg%2F11ckx2nk5g!19sChIJrczXFBRH0i0Ri0cR1OTyIpE?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Villa Ariana</t>
+          <t>Villa Helsinki Bali</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(4)</t>
+          <t>(9)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1274,27 +1262,27 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Ariana/data=!4m10!3m9!1s0x2dd247183345a9cf:0xcd8fef75c6a9401a!5m2!4m1!1i2!8m2!3d-8.6850084!4d115.1622922!16s%2Fg%2F11cltfvgvt!19sChIJz6lFMxhH0i0RGkCpxnXvj80?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Helsinki+Bali/data=!4m10!3m9!1s0x2dd245c8f9f1101d:0x9b09e76b7a1ef684!5m2!4m1!1i2!8m2!3d-8.7581972!4d115.1798329!16s%2Fg%2F11qn6nmdlk!19sChIJHRDx-chF0i0RhPYeemvnCZs?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Villa Tsuchi</t>
+          <t>HK Villa Bali</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(76)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1307,54 +1295,54 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Tsuchi/data=!4m10!3m9!1s0x2dd2471739b8827b:0xbecc8fa021ff5d03!5m2!4m1!1i2!8m2!3d-8.6827797!4d115.160156!16s%2Fg%2F11c6f8b0k8!19sChIJe4K4ORdH0i0RA13_IaCPzL4?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/HK+Villa+Bali/data=!4m10!3m9!1s0x2dd246db8276dfab:0x4d6b401d8cdfe17a!5m2!4m1!1i2!8m2!3d-8.7011564!4d115.1716188!16s%2Fg%2F11bw51s8zg!19sChIJq992gttG0i0ReuHfjB1Aa00?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Smiling Cactus Villas</t>
+          <t>The Jas Villas</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>(8)</t>
+          <t>(358)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Villa</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Jl. Braban No.86</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
+          <t>4-star hotel</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Upscale hotel with modern villas &amp; a spa</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Smiling+Cactus+Villas/data=!4m7!3m6!1s0x2dd247b8a2c407c1:0x9418e6314f618240!8m2!3d-8.6821793!4d115.1594485!16s%2Fg%2F11jf02g_52!19sChIJwQfEorhH0i0RQIJhTzHmGJQ?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/The+Jas+Villas/data=!4m10!3m9!1s0x2dd2404132fe187f:0x67855b39d92d9a81!5m2!4m1!1i2!8m2!3d-8.6867495!4d115.1604468!16s%2Fg%2F1q63cj1z9!19sChIJfxj-MkFA0i0RgZot2TlbhWc?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SALTY VILLA</t>
+          <t>Villa Asta</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1364,7 +1352,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>(10)</t>
+          <t>(14)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1373,35 +1361,35 @@
           <t>Villa</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Gg. Werkudara No.10 G</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Swanky villa with a pool &amp; a terrace</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/SALTY+VILLA/data=!4m7!3m6!1s0x2dd24711a100d4a3:0x71bfcf7c00a406a9!8m2!3d-8.6812071!4d115.1564204!16s%2Fg%2F11g00x_91t!19sChIJo9QAoRFH0i0RqQakAHzPv3E?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Asta/data=!4m10!3m9!1s0x2dd247728b12f49b:0xd246d3dddf1c4da2!5m2!4m1!1i2!8m2!3d-8.6724011!4d115.1517361!16s%2Fg%2F1tg96k7s!19sChIJm_QSi3JH0i0Rok0c393TRtI?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Villa Nakal</t>
+          <t>Villa Sun Day</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>(44)</t>
+          <t>(7)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1410,31 +1398,35 @@
           <t>Villa</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Jl. Drupadi 1 No.2 A</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Nakal/data=!4m10!3m9!1s0x2dd24711a8589a15:0x994de09e023b201a!5m2!4m1!1i2!8m2!3d-8.681721!4d115.1558238!16s%2Fg%2F11fylwcm9j!19sChIJFZpYqBFH0i0RGiA7Ap7gTZk?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Sun+Day/data=!4m7!3m6!1s0x2dd247cbb0a2f3a9:0x3490721eae8db57f!8m2!3d-8.6892662!4d115.1669023!16s%2Fg%2F11lg2kvp5p!19sChIJqfOisMtH0i0Rf7WNrh5ykDQ?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>The Christin Villa</t>
+          <t>Villa Ariana</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>(7)</t>
+          <t>(4)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1447,17 +1439,17 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/The+Christin+Villa/data=!4m10!3m9!1s0x2dd2471a470bb06d:0x11a1100d9d3d4ee0!5m2!4m1!1i2!8m2!3d-8.6861578!4d115.1571017!16s%2Fg%2F1hc0tdjk1!19sChIJbbALRxpH0i0R4E49nQ0QoRE?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Ariana/data=!4m10!3m9!1s0x2dd247183345a9cf:0xcd8fef75c6a9401a!5m2!4m1!1i2!8m2!3d-8.6850084!4d115.1622922!16s%2Fg%2F11cltfvgvt!19sChIJz6lFMxhH0i0RGkCpxnXvj80?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Villa Sipo</t>
+          <t>Bali Akasa Villa</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1467,7 +1459,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>(18)</t>
+          <t>(6)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1480,13 +1472,13 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Sipo/data=!4m10!3m9!1s0x2dd2471190a447f1:0x9f3b1e8bff6a8fda!5m2!4m1!1i2!8m2!3d-8.680418!4d115.155537!16s%2Fg%2F1pyqnylqc!19sChIJ8UekkBFH0i0R2o9q_4seO58?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Bali+Akasa+Villa/data=!4m10!3m9!1s0x2dd247879f5feb3b:0x747e1cbf029425ab!5m2!4m1!1i2!8m2!3d-8.6815817!4d115.1718613!16s%2Fg%2F11s166zfh_!19sChIJO-tfn4dH0i0RqyWUAr8cfnQ?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1519,50 +1511,58 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>6 Bedroom Villas Bali</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+          <t>Villa Goya</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>(10)</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Travel agency</t>
+          <t>Villa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Jl. Sari Dewi No.16A</t>
+          <t>8576+FHV, Gg. Kahyangan</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/6+Bedroom+Villas+Bali/data=!4m7!3m6!1s0x2dd2477b7266d9eb:0x54f78b2763dc4ce1!8m2!3d-8.6878523!4d115.1579406!16s%2Fg%2F11j7_8jq3d!19sChIJ69lmcntH0i0R4UzcYyeL91Q?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Goya/data=!4m7!3m6!1s0x2dd2474be8a3098d:0x34a382b3062d753c!8m2!3d-8.6862582!4d115.1614244!16s%2Fg%2F11h0bv6hhr!19sChIJjQmj6EtH0i0RPHUtBrOCozQ?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Turquoise Villa Seminyak Bali</t>
+          <t>The Secret Jungle Villas Seminyak Bali</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>(47)</t>
+          <t>(35)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1571,35 +1571,31 @@
           <t>Villa</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Jalan Drupadi Gang 108</t>
-        </is>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Turquoise+Villa+Seminyak+Bali/data=!4m7!3m6!1s0x2dd247a54b5f2191:0xb4c75fd98e8cb583!8m2!3d-8.6892585!4d115.1626531!16s%2Fg%2F11fl9ggmls!19sChIJkSFfS6VH0i0Rg7WMjtlfx7Q?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/The+Secret+Jungle+Villas+Seminyak+Bali/data=!4m10!3m9!1s0x2dd247204e45bd45:0x95c4b7d886a317c4!5m2!4m1!1i2!8m2!3d-8.6917596!4d115.1654752!16s%2Fg%2F11gx_gdntn!19sChIJRb1FTiBH0i0RxBejhti3xJU?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Villa Issi</t>
+          <t>S18 Bali Villas</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>(6)</t>
+          <t>(214)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -1609,30 +1605,34 @@
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Refined villas with private pools</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Issi/data=!4m10!3m9!1s0x2dd247195f55cfa5:0xf9efc9309019d36f!5m2!4m1!1i2!8m2!3d-8.6878083!4d115.1603121!16s%2Fg%2F1pzxfv34b!19sChIJpc9VXxlH0i0Rb9MZkDDJ7_k?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/S18+Bali+Villas/data=!4m10!3m9!1s0x2dd246cf1643c26d:0x3261db9eca233586!5m2!4m1!1i2!8m2!3d-8.7072094!4d115.1791661!16s%2Fg%2F11dxnqm40k!19sChIJbcJDFs9G0i0RhjUjyp7bYTI?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Villa Asta</t>
+          <t>Villa Latitude Bali</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>(14)</t>
+          <t>(371)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1641,167 +1641,171 @@
           <t>Villa</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Swanky villa with a pool &amp; a terrace</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Karang Kembar Estate No. 1, Jalan Karang Putih, Desa Kutuh</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Asta/data=!4m10!3m9!1s0x2dd247728b12f49b:0xd246d3dddf1c4da2!5m2!4m1!1i2!8m2!3d-8.6724011!4d115.1517361!16s%2Fg%2F1tg96k7s!19sChIJm_QSi3JH0i0Rok0c393TRtI?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Latitude+Bali/data=!4m7!3m6!1s0x2dd25b6343123d25:0xbcc777a8bded2e6e!8m2!3d-8.8437312!4d115.1844393!16s%2Fg%2F11gz75bhm!19sChIJJT0SQ2Nb0i0Rbi7tvah3x7w?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Noku Beach House</t>
+          <t>Villa Shambala</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>(118)</t>
+          <t>(18)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>5-star hotel</t>
+          <t>Villa</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Chic beachside pick with a pool</t>
-        </is>
-      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Noku+Beach+House/data=!4m10!3m9!1s0x2dd247225c1e3677:0x8d198ce023b56b63!5m2!4m1!1i2!8m2!3d-8.6908984!4d115.157784!16s%2Fg%2F1tk40rb1!19sChIJdzYeXCJH0i0RY2u1I-CMGY0?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Shambala/data=!4m10!3m9!1s0x2dd24719810a03f5:0x777ba4e92edb1484!5m2!4m1!1i2!8m2!3d-8.6867097!4d115.1592329!16s%2Fg%2F1s04g8kpj!19sChIJ9QMKgRlH0i0RhBTbLumke3c?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Villa Joli</t>
+          <t>Villa Seminyak Estate &amp; Spa by Astadala</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(653)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4-star hotel</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Upscale spa hotel with posh villas</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Joli/data=!4m7!3m6!1s0x2dd247f025180f8b:0x2fcaf26949dc552b!8m2!3d-8.6826319!4d115.1618135!16s%2Fg%2F11pcwqfz_8!19sChIJiw8YJfBH0i0RK1XcSWnyyi8?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Seminyak+Estate+%26+Spa+by+Astadala/data=!4m10!3m9!1s0x2dd23f61d8ada307:0x337841dda89b1d6b!5m2!4m1!1i2!8m2!3d-8.6953792!4d115.1713912!16s%2Fg%2F1thv1nsy!19sChIJB6Ot2GE_0i0Rax2bqN1BeDM?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Villa Opaline</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>(9)</t>
-        </is>
-      </c>
+          <t>10 Bedroom Villas Bali</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
           <t>Villa</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Jl. Sari Dewi No.16E</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Opaline/data=!4m10!3m9!1s0x2dd2471f2567e4c7:0x43c640fa0201d773!5m2!4m1!1i2!8m2!3d-8.6891594!4d115.1627027!16s%2Fg%2F11h6g56qfq!19sChIJx-RnJR9H0i0Rc9cBAvpAxkM?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/10+Bedroom+Villas+Bali/data=!4m7!3m6!1s0x2dd247917bc253bb:0xc55a3949ed4923ad!8m2!3d-8.6878523!4d115.1579406!16s%2Fg%2F11fqcp8_b7!19sChIJu1PCe5FH0i0RrSNJ7Uk5WsU?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>OWN VILLA</t>
+          <t>Asa Bali Luxury Villas &amp; Spa</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>(52)</t>
+          <t>(285)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Villa</t>
+          <t>4-star hotel</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Elegant resort with a restaurant &amp; a spa</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/OWN+VILLA/data=!4m10!3m9!1s0x2dd2477067fada31:0xd4bcf06c85587559!5m2!4m1!1i2!8m2!3d-8.6658167!4d115.151076!16s%2Fg%2F11f_s8_zjt!19sChIJMdr6Z3BH0i0RWXVYhWzwvNQ?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Asa+Bali+Luxury+Villas+%26+Spa/data=!4m10!3m9!1s0x2dd247264cf3ac1b:0xc29ff3eee6639d7d!5m2!4m1!1i2!8m2!3d-8.69105!4d115.174987!16s%2Fg%2F1pv61n19k!19sChIJG6zzTCZH0i0RfZ1j5u7zn8I?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Villa Kudus</t>
+          <t>Villa Opaline</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>(17)</t>
+          <t>(9)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -1814,60 +1818,56 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Kudus/data=!4m10!3m9!1s0x2dd2479d6bee1b15:0x3c8baaa839e4187!5m2!4m1!1i2!8m2!3d-8.6663675!4d115.1408843!16s%2Fg%2F1s04d7k3l!19sChIJFRvua51H0i0Rh0Geg6q6yAM?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Opaline/data=!4m10!3m9!1s0x2dd2471f2567e4c7:0x43c640fa0201d773!5m2!4m1!1i2!8m2!3d-8.6891594!4d115.1627027!16s%2Fg%2F11h6g56qfq!19sChIJx-RnJR9H0i0Rc9cBAvpAxkM?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Villa Raquel</t>
+          <t>LYFF Villa Bali</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>(8)</t>
+          <t>(13)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Villa</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Raquel/data=!4m10!3m9!1s0x2dd24716fe1fda5b:0x9e813d89f6e37f77!5m2!4m1!1i2!8m2!3d-8.6825558!4d115.1600711!16s%2Fg%2F11c53d4y4c!19sChIJW9of_hZH0i0Rd3_j9ok9gZ4?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/LYFF+Villa+Bali/data=!4m10!3m9!1s0x2dd2477cf95a3957:0xff0b11b056ae1c33!5m2!4m1!1i2!8m2!3d-8.7065105!4d115.1801487!16s%2Fg%2F11g0vy8nk2!19sChIJVzla-XxH0i0RMxyuVrARC_8?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Villa Concetta Seminyak</t>
+          <t>Eshara Villas</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>(32)</t>
+          <t>(19)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -1880,60 +1880,60 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Concetta+Seminyak/data=!4m10!3m9!1s0x2dd2471c0bcf9f97:0xef9fb59ffcdddd14!5m2!4m1!1i2!8m2!3d-8.6896576!4d115.1581026!16s%2Fg%2F11c2pt3z7x!19sChIJl5_PCxxH0i0RFN3d_J-1n-8?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Eshara+Villas/data=!4m10!3m9!1s0x2dd2471bce07ceff:0x2870b92738aad95c!5m2!4m1!1i2!8m2!3d-8.68683!4d115.15868!16s%2Fg%2F1q5gm_f1g!19sChIJ_84HzhtH0i0RXNmqOCe5cCg?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Villa Maharaj</t>
+          <t>The Buah Bali Villas</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>(12)</t>
+          <t>(72)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Villa</t>
+          <t>5-star hotel</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Maharaj/data=!4m10!3m9!1s0x2dd24711b5791327:0x6a7774855eaa3b0!5m2!4m1!1i2!8m2!3d-8.6819917!4d115.1549678!16s%2Fg%2F11x9yrt70!19sChIJJxN5tRFH0i0RsKPqVUh3pwY?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/The+Buah+Bali+Villas/data=!4m10!3m9!1s0x2dd2470ded5a0a9b:0xc63d4a3c07cf1c3a!5m2!4m1!1i2!8m2!3d-8.6784731!4d115.1526598!16s%2Fg%2F1pp2vcz8y!19sChIJmwpa7Q1H0i0ROhzPBzxKPcY?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Kamil Villas</t>
+          <t>Sol Bella Villas Bali</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>(73)</t>
+          <t>(35)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -1942,64 +1942,68 @@
           <t>Villa</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Gang Juringan Gang Juringan No 1</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Kamil+Villas/data=!4m10!3m9!1s0x2dd24719ace41abf:0x7fdbdf9ec0e34ec5!5m2!4m1!1i2!8m2!3d-8.6860733!4d115.1622922!16s%2Fg%2F11g6mxc039!19sChIJvxrkrBlH0i0RxU7jwJ7f238?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Sol+Bella+Villas+Bali/data=!4m7!3m6!1s0x2dd2476cd121a0d5:0x47f852235e02960d!8m2!3d-8.6739059!4d115.156836!16s%2Fg%2F11cjj04g31!19sChIJ1aAh0WxH0i0RDZYCXiNS-Ec?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Villa Odyssey</t>
+          <t>Villa Lucia Seminyak</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>(22)</t>
+          <t>(23)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>4-star hotel</t>
+          <t>Villa</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Odyssey/data=!4m10!3m9!1s0x2dd24718d89753a1:0xd6863db9d0d913a2!5m2!4m1!1i2!8m2!3d-8.6883502!4d115.1623937!16s%2Fg%2F11cmf4qnvq!19sChIJoVOX2BhH0i0RohPZ0Lk9htY?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Lucia+Seminyak/data=!4m10!3m9!1s0x2dd2471c0bc7c22f:0xad159443f55a9201!5m2!4m1!1i2!8m2!3d-8.6896576!4d115.1581027!16s%2Fg%2F11c705wq1t!19sChIJL8LHCxxH0i0RAZJa9UOUFa0?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sol Bella Villas Bali</t>
+          <t>Budha Beach Villa - Luxury Private Villas in Seminyak</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>(35)</t>
+          <t>(25)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -2008,56 +2012,68 @@
           <t>Villa</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Gang Juringan Gang Juringan No 1</t>
-        </is>
-      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Sol+Bella+Villas+Bali/data=!4m7!3m6!1s0x2dd2476cd121a0d5:0x47f852235e02960d!8m2!3d-8.6739059!4d115.156836!16s%2Fg%2F11cjj04g31!19sChIJ1aAh0WxH0i0RDZYCXiNS-Ec?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Budha+Beach+Villa+-+Luxury+Private+Villas+in+Seminyak/data=!4m10!3m9!1s0x2dd24727309dcef3:0x6afa5a87fedd7fd9!5m2!4m1!1i2!8m2!3d-8.6916587!4d115.172074!16s%2Fg%2F11f10dmbds!19sChIJ886dMCdH0i0R2X_d_oda-mo?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Saga Villas Oasis</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+          <t>Alindra Villa</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>(717)</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4-star hotel</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Posh hotel with a pool, a spa &amp; dining</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Saga+Villas+Oasis/data=!4m7!3m6!1s0x2dd247fe27c54565:0x3ffe4f639742e7aa!8m2!3d-8.6864262!4d115.1581657!16s%2Fg%2F11k6r8_9zc!19sChIJZUXFJ_5H0i0RqudCl2NP_j8?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Alindra+Villa/data=!4m10!3m9!1s0x2dd243629aae7ff5:0x797a91b5680302ec!5m2!4m1!1i2!8m2!3d-8.7867924!4d115.1917859!16s%2Fg%2F12m97lmgm!19sChIJ9X-ummJD0i0R7AIDaLWRenk?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Villa KIU</t>
+          <t>Villa Anna Seminyak</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>(17)</t>
+          <t>(14)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -2066,31 +2082,35 @@
           <t>Villa</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Jl. Kunti II No.8</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+KIU/data=!4m10!3m9!1s0x2dd24708e084f829:0x13a8ae5b584a29a6!5m2!4m1!1i2!8m2!3d-8.6870288!4d115.1594059!16s%2Fg%2F11lm0fhwd3!19sChIJKfiE4AhH0i0RpilKWFuuqBM?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Anna+Seminyak/data=!4m7!3m6!1s0x2dd24708b2abbcd1:0xbfbd4c80e2237a4c!8m2!3d-8.6872152!4d115.1757603!16s%2Fg%2F11h64dhhkb!19sChIJ0byrsghH0i0RTHoj4oBMvb8?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Casa Brio Bali</t>
+          <t>Saudara Villas</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>(14)</t>
+          <t>(31)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -2099,31 +2119,35 @@
           <t>Villa</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Gg. Kahyangan No.6</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Casa+Brio+Bali/data=!4m10!3m9!1s0x2dd247125a5533cd:0x3ae93a46e793ff63!5m2!4m1!1i2!8m2!3d-8.6799707!4d115.1556021!16s%2Fg%2F1ptzvn2cj!19sChIJzTNVWhJH0i0RY_-T50Y66To?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Saudara+Villas/data=!4m7!3m6!1s0x2dd2471af0b5acc7:0xa5af88e0e38e729f!8m2!3d-8.6865621!4d115.1556931!16s%2Fg%2F11c5sbmd4w!19sChIJx6y18BpH0i0Rn3KO4-CIr6U?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Villa Sun Day</t>
+          <t>Villa Air Bali Boutique Resort &amp; Spa</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>(7)</t>
+          <t>(381)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -2132,72 +2156,68 @@
           <t>Villa</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Jl. Drupadi 1 No.2 A</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Upscale spa resort with luxe villas</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Sun+Day/data=!4m7!3m6!1s0x2dd247cbb0a2f3a9:0x3490721eae8db57f!8m2!3d-8.6892662!4d115.1669023!16s%2Fg%2F11lg2kvp5p!19sChIJqfOisMtH0i0Rf7WNrh5ykDQ?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Air+Bali+Boutique+Resort+%26+Spa/data=!4m10!3m9!1s0x2dd24713a8654edd:0xdd7105c61402217!5m2!4m1!1i2!8m2!3d-8.6775439!4d115.16101!16s%2Fg%2F1tf558_f!19sChIJ3U5lqBNH0i0RFyJAYVwQ1w0?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Villa Kora Seminyak</t>
+          <t>Villa Odyssey</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>(6)</t>
+          <t>(22)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Holiday home</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>complex sekartaman 1 villas, Jl. Mertasari</t>
-        </is>
-      </c>
+          <t>4-star hotel</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Kora+Seminyak/data=!4m7!3m6!1s0x2dd247d2de8dccdd:0x97e45f80634b035d!8m2!3d-8.6836274!4d115.1587151!16s%2Fg%2F11f5t9t9hz!19sChIJ3cyN3tJH0i0RXQNLY4Bf5Jc?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Odyssey/data=!4m10!3m9!1s0x2dd24718d89753a1:0xd6863db9d0d913a2!5m2!4m1!1i2!8m2!3d-8.6883502!4d115.1623937!16s%2Fg%2F11cmf4qnvq!19sChIJoVOX2BhH0i0RohPZ0Lk9htY?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Villa Thyme</t>
+          <t>Green Village Bali</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>(8)</t>
+          <t>(419)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -2210,27 +2230,27 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Thyme/data=!4m10!3m9!1s0x2dd24719d1fa2d99:0x216cbc4a447a96d9!5m2!4m1!1i2!8m2!3d-8.6847437!4d115.1618599!16s%2Fg%2F11f3mb7w8q!19sChIJmS360RlH0i0R2ZZ6REq8bCE?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Green+Village+Bali/data=!4m10!3m9!1s0x2dd23e98ce81d05d:0xeba44397531d427f!5m2!4m1!1i2!8m2!3d-8.5739904!4d115.2140014!16s%2Fg%2F1td3_l8j!19sChIJXdCBzpg-0i0Rf0IdU5dDpOs?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Balicosy Villa</t>
+          <t>White House Villa Bali</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>(160)</t>
+          <t>(42)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -2240,92 +2260,96 @@
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Chic option with kitchens &amp; pools</t>
-        </is>
-      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Balicosy+Villa/data=!4m10!3m9!1s0x2dd246e00b26cc1f:0x1c410316c941a0de!5m2!4m1!1i2!8m2!3d-8.7031313!4d115.1736905!16s%2Fg%2F11xc92jc2!19sChIJH8wmC-BG0i0R3qBByRYDQRw?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/White+House+Villa+Bali/data=!4m10!3m9!1s0x2dd23f1fe3abcba9:0x89f26f12d9f6e8b3!5m2!4m1!1i2!8m2!3d-8.5927627!4d115.1738857!16s%2Fg%2F11gmc0dscv!19sChIJqcur4x8_0i0Rs-j22RJv8ok?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Villa Bens Kenanga</t>
+          <t>Villa Azure Seminyak</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>(23)</t>
+          <t>(27)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Villa</t>
+          <t>4-star hotel</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Bens+Kenanga/data=!4m10!3m9!1s0x2dd247d70c94f0f3:0x44073ff179444198!5m2!4m1!1i2!8m2!3d-8.6710211!4d115.1686569!16s%2Fg%2F11j0qn6b66!19sChIJ8_CUDNdH0i0RmEFEefE_B0Q?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Azure+Seminyak/data=!4m10!3m9!1s0x2dd2471f13de8105:0x3ba7e013c2a9b241!5m2!4m1!1i2!8m2!3d-8.6904191!4d115.1633834!16s%2Fg%2F11c6pmhs_b!19sChIJBYHeEx9H0i0RQbKpwhPgpzs?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Villa Deh Simba Oberoi</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
+          <t>Villa Drupadi Seminyak</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>(45)</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Villa</t>
+          <t>3-star hotel</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Deh+Simba+Oberoi/data=!4m10!3m9!1s0x2dd2479947f9e5e7:0xc7fb94812ff03b30!5m2!4m1!1i2!8m2!3d-8.6826267!4d115.1582614!16s%2Fg%2F11jxqktk6r!19sChIJ5-X5R5lH0i0RMDvwL4GU-8c?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Drupadi+Seminyak/data=!4m10!3m9!1s0x2dd24718733042ad:0xcc5e69558a833061!5m2!4m1!1i2!8m2!3d-8.685671!4d115.1645629!16s%2Fg%2F1hm52j559!19sChIJrUIwcxhH0i0RYTCDilVpXsw?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>art villa - La Playa (Alu Bali 3)</t>
+          <t>iori Villa</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>(6)</t>
+          <t>(9)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -2334,31 +2358,35 @@
           <t>Villa</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Jl. Intan Permai Jl. Intan Permai Gg. III No.99</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/art+villa+-+La+Playa+(Alu+Bali+3)/data=!4m10!3m9!1s0x2dd2470e09df0bd5:0xce1117e4d8d2be0a!5m2!4m1!1i2!8m2!3d-8.6797555!4d115.1523131!16s%2Fg%2F11c1xm5101!19sChIJ1QvfCQ5H0i0RCr7S2OQXEc4?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/iori+Villa/data=!4m7!3m6!1s0x2dd2470390b9838b:0xabfa5243aebd4df5!8m2!3d-8.6734732!4d115.1705169!16s%2Fg%2F11fsrffjwv!19sChIJi4O5kANH0i0R9U29rkNS-qs?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Villa Air Bali Boutique Resort &amp; Spa</t>
+          <t>Kamil Villas</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>(381)</t>
+          <t>(73)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -2368,34 +2396,30 @@
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Upscale spa resort with luxe villas</t>
-        </is>
-      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Air+Bali+Boutique+Resort+%26+Spa/data=!4m10!3m9!1s0x2dd24713a8654edd:0xdd7105c61402217!5m2!4m1!1i2!8m2!3d-8.6775439!4d115.16101!16s%2Fg%2F1tf558_f!19sChIJ3U5lqBNH0i0RFyJAYVwQ1w0?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Kamil+Villas/data=!4m10!3m9!1s0x2dd24719ace41abf:0x7fdbdf9ec0e34ec5!5m2!4m1!1i2!8m2!3d-8.6860733!4d115.1622922!16s%2Fg%2F11g6mxc039!19sChIJvxrkrBlH0i0RxU7jwJ7f238?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Villa Smilla</t>
+          <t>Arnalaya Beach House</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>(18)</t>
+          <t>(58)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -2408,27 +2432,27 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Smilla/data=!4m10!3m9!1s0x2dd247fb5bc14a6b:0x2f1e7109a1d568dd!5m2!4m1!1i2!8m2!3d-8.6881397!4d115.1613817!16s%2Fg%2F11g0mv9lwm!19sChIJa0rBW_tH0i0R3WjVoQlxHi8?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Arnalaya+Beach+House/data=!4m10!3m9!1s0x2dd2478424c6c519:0x23478c76351540e3!5m2!4m1!1i2!8m2!3d-8.6614753!4d115.1333929!16s%2Fg%2F1q5gnbnn3!19sChIJGcXGJIRH0i0R40AVNXaMRyM?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Villa Putih Bali</t>
+          <t>Villa Kilau</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>(7)</t>
+          <t>(9)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -2441,91 +2465,91 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Putih+Bali/data=!4m10!3m9!1s0x2dd2471ad9082a3b:0xe936653909a6a8aa!5m2!4m1!1i2!8m2!3d-8.6811921!4d115.1559451!16s%2Fg%2F1pzr10g1z!19sChIJOyoI2RpH0i0RqqimCTllNuk?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Kilau/data=!4m10!3m9!1s0x2dd24722753529e9:0xafcf9077fccd1502!5m2!4m1!1i2!8m2!3d-8.6876918!4d115.1653155!16s%2Fg%2F11c37knrpv!19sChIJ6Sk1dSJH0i0RAhXN_HeQz68?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Villa Mia Dua, Seminyak</t>
+          <t>Villa Joss</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>(16)</t>
+          <t>(27)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Villa</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Gg. Kahyangan</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
+          <t>4-star hotel</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Chic villa offering dining &amp; a pool</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Mia+Dua,+Seminyak/data=!4m7!3m6!1s0x2dd2473053228099:0x824b56d4fad0a75!8m2!3d-8.6867123!4d115.1622424!16s%2Fg%2F11pd56df8x!19sChIJmYAiUzBH0i0RdQqtT221JAg?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Joss/data=!4m10!3m9!1s0x2dd2476d7010de29:0x37999dd153191993!5m2!4m1!1i2!8m2!3d-8.673253!4d115.147213!16s%2Fg%2F11y9zclgf!19sChIJKd4QcG1H0i0RkxkZU9GdmTc?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Villa Sari Dewi</t>
+          <t>AYANA Villas Bali</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>(13)</t>
+          <t>(263)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Villa</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Sari Dewi, Jalan Sari Dewi.Villa</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr"/>
+          <t>5-star hotel</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Polished villas with private pools</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Sari+Dewi/data=!4m7!3m6!1s0x2dd247196032d921:0xdb19521205203fd8!8m2!3d-8.6876681!4d115.1593108!16s%2Fg%2F11c19wfyqz!19sChIJIdkyYBlH0i0R2D8gBRJSGds?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/AYANA+Villas+Bali/data=!4m10!3m9!1s0x2dd24502e260697b:0x826f7997cd0bff97!5m2!4m1!1i2!8m2!3d-8.788001!4d115.1366264!16s%2Fg%2F11xk3wd3c!19sChIJe2lg4gJF0i0Rl_8LzZd5b4I?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Villa Drupadi Seminyak</t>
+          <t>Smiling Cactus Villas</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2535,73 +2559,81 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>(45)</t>
+          <t>(8)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>3-star hotel</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
+          <t>Villa</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Jl. Braban No.86</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Drupadi+Seminyak/data=!4m10!3m9!1s0x2dd24718733042ad:0xcc5e69558a833061!5m2!4m1!1i2!8m2!3d-8.685671!4d115.1645629!16s%2Fg%2F1hm52j559!19sChIJrUIwcxhH0i0RYTCDilVpXsw?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Smiling+Cactus+Villas/data=!4m7!3m6!1s0x2dd247b8a2c407c1:0x9418e6314f618240!8m2!3d-8.6821793!4d115.1594485!16s%2Fg%2F11jf02g_52!19sChIJwQfEorhH0i0RQIJhTzHmGJQ?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Villa Soleh Seminyak</t>
+          <t>Ametis Villa</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>(7)</t>
+          <t>(222)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Villa</t>
+          <t>5-star hotel</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Elegant hotel with dining &amp; a spa</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Soleh+Seminyak/data=!4m10!3m9!1s0x2dd247174f23b62b:0x114bd6d7f733b919!5m2!4m1!1i2!8m2!3d-8.6827703!4d115.1600894!16s%2Fg%2F11c173r3rr!19sChIJK7YjTxdH0i0RGbkz99fWSxE?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Ametis+Villa/data=!4m10!3m9!1s0x2dd2387c49d72c23:0x963f451148ce5cbb!5m2!4m1!1i2!8m2!3d-8.6567281!4d115.1314514!16s%2Fg%2F11xxm9hzj!19sChIJIyzXSXw40i0Ru1zOSBFFP5Y?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Villa Sayang D'Amour</t>
+          <t>VILLA LILIS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>(20)</t>
+          <t>(18)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -2614,64 +2646,60 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Sayang+D'Amour/data=!4m10!3m9!1s0x2dd2470d095833ad:0xc1d78185b0a58d06!5m2!4m1!1i2!8m2!3d-8.6769661!4d115.1518273!16s%2Fg%2F1s049d935!19sChIJrTNYCQ1H0i0RBo2lsIWB18E?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/VILLA+LILIS/data=!4m10!3m9!1s0x2dd2473c14c6117b:0xb1394f86acbde550!5m2!4m1!1i2!8m2!3d-8.679859!4d115.169904!16s%2Fg%2F11f1yjkprc!19sChIJexHGFDxH0i0RUOW9rIZPObE?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Serene Villas</t>
+          <t>Villa Issi</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>(127)</t>
+          <t>(6)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>5-star hotel</t>
+          <t>Villa</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Posh villa resort with butler service</t>
-        </is>
-      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Serene+Villas/data=!4m10!3m9!1s0x2dd2471f52dab8ab:0x8ef8bede92746a5b!5m2!4m1!1i2!8m2!3d-8.687775!4d115.163664!16s%2Fg%2F1tgft0t8!19sChIJq7jaUh9H0i0RW2p0kt6--I4?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Issi/data=!4m10!3m9!1s0x2dd247195f55cfa5:0xf9efc9309019d36f!5m2!4m1!1i2!8m2!3d-8.6878083!4d115.1603121!16s%2Fg%2F1pzxfv34b!19sChIJpc9VXxlH0i0Rb9MZkDDJ7_k?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>The Layar - Designer Villas and Spa</t>
+          <t>Serene Villas</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>(311)</t>
+          <t>(127)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -2683,65 +2711,65 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Posh resort with private villas &amp; a spa</t>
+          <t>Posh villa resort with butler service</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/The+Layar+-+Designer+Villas+and+Spa/data=!4m10!3m9!1s0x2dd24716bb2e3f69:0xebb346a92924abd8!5m2!4m1!1i2!8m2!3d-8.6796989!4d115.1601183!16s%2Fg%2F12vtm32ry!19sChIJaT8uuxZH0i0R2KskKalGs-s?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Serene+Villas/data=!4m10!3m9!1s0x2dd2471f52dab8ab:0x8ef8bede92746a5b!5m2!4m1!1i2!8m2!3d-8.687775!4d115.163664!16s%2Fg%2F1tgft0t8!19sChIJq7jaUh9H0i0RW2p0kt6--I4?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Villa LaDonna</t>
+          <t>The Edelweiss Villas Cemagi Bali</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>(2)</t>
+          <t>(37)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Villa</t>
+          <t>3-star hotel</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+LaDonna/data=!4m10!3m9!1s0x2dd2474d67dad33f:0xd8743bfd9b842329!5m2!4m1!1i2!8m2!3d-8.6837344!4d115.1714442!16s%2Fg%2F11nmfzv493!19sChIJP9PaZ01H0i0RKSOEm_07dNg?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/The+Edelweiss+Villas+Cemagi+Bali/data=!4m10!3m9!1s0x2dd23810b6a0da97:0x41cfd01475f0ddf5!5m2!4m1!1i2!8m2!3d-8.6433353!4d115.1066915!16s%2Fg%2F11cm0nb40b!19sChIJl9qgthA40i0R9d3wdRTQz0E?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Radea Villa - Private Pool Villa</t>
+          <t>The Bali Dream Villa Seminyak</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>(61)</t>
+          <t>(444)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -2751,30 +2779,34 @@
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Chic hotel with private villas &amp; pools</t>
+        </is>
+      </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Radea+Villa+-+Private+Pool+Villa/data=!4m10!3m9!1s0x2dd2472d0e63e135:0xab4a40a4434713dd!5m2!4m1!1i2!8m2!3d-8.6589687!4d115.1545616!16s%2Fg%2F11h88nmphy!19sChIJNeFjDi1H0i0R3RNHQ6RASqs?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/The+Bali+Dream+Villa+Seminyak/data=!4m10!3m9!1s0x2dd2473ca614112b:0x7cd11d4d9761cc7e!5m2!4m1!1i2!8m2!3d-8.6829682!4d115.1706609!16s%2Fg%2F1tff0g5n!19sChIJKxEUpjxH0i0Rfsxhl00d0Xw?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Villa Casa Hannah</t>
+          <t>Bali Villa 4 Bedroom</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>(22)</t>
+          <t>(5)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -2787,50 +2819,50 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Casa+Hannah/data=!4m10!3m9!1s0x2dd247170e5beae3:0x894e0ec793194cae!5m2!4m1!1i2!8m2!3d-8.6819734!4d115.1618804!16s%2Fg%2F1v387myd!19sChIJ4-pbDhdH0i0RrkwZk8cOTok?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Bali+Villa+4+Bedroom/data=!4m10!3m9!1s0x2dd247131ec82db9:0x391929f4ae7c95d!5m2!4m1!1i2!8m2!3d-8.6829993!4d115.1567597!16s%2Fg%2F1xflmqzz!19sChIJuS3IHhNH0i0RXcnnSp-SkQM?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Aksari Villa Seminyak - Luxury Romantic Villa in Seminyak Bali</t>
+          <t>Villa Sarah Bali</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>(565)</t>
+          <t>(36)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>4-star hotel</t>
+          <t>Villa</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Aksari+Villa+Seminyak+-+Luxury+Romantic+Villa+in+Seminyak+Bali/data=!4m10!3m9!1s0x2dd246d89ccb0c79:0x5707b4542f65e41!5m2!4m1!1i2!8m2!3d-8.693886!4d115.1735448!16s%2Fg%2F11cs9m6kpb!19sChIJeQzLnNhG0i0RQV72QkV7cAU?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Sarah+Bali/data=!4m10!3m9!1s0x2dd2471959cc30d3:0x15c824615bb48daf!5m2!4m1!1i2!8m2!3d-8.6887882!4d115.1595224!16s%2Fg%2F11b6p8jb82!19sChIJ0zDMWRlH0i0Rr420W2EkyBU?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Saga Villas Legacy</t>
+          <t>VILLA KAYU AYA BALI</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2840,7 +2872,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>(2)</t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -2851,33 +2883,33 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Jl. Sari Temuku No.9B</t>
+          <t>Jl. Kayu Jati I Jl. Petitenget No.23</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Saga+Villas+Legacy/data=!4m7!3m6!1s0x2dd247f58c604261:0x816cc18d2df3a720!8m2!3d-8.6864327!4d115.1584009!16s%2Fg%2F11jnxs4t1y!19sChIJYUJgjPVH0i0RIKfzLY3BbIE?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/VILLA+KAYU+AYA+BALI/data=!4m7!3m6!1s0x2dd24710332e5d75:0x1470119fc11ac4f0!8m2!3d-8.6818899!4d115.1539819!16s%2Fg%2F11bwldcsz2!19sChIJdV0uMxBH0i0R8MQawZ8RcBQ?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Villa Kayu Manis</t>
+          <t>Villa Asante</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>(3)</t>
+          <t>(19)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -2888,33 +2920,33 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Gg. Ky Cempaka No.5</t>
+          <t>Echo Beach villa, Jl. Pantai Batu Mejan Jl. Canggu Padang Linjong</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Kayu+Manis/data=!4m7!3m6!1s0x2dd2395bff013d63:0x8ae772942128a541!8m2!3d-8.6486304!4d115.1664109!16s%2Fg%2F11fp3hg2sg!19sChIJYz0B_1s50i0RQaUoIZRy54o?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Asante/data=!4m7!3m6!1s0x2dd2387715082fe1:0x741909efeed7553!8m2!3d-8.6523575!4d115.1270534!16s%2Fg%2F1hm4jznbx!19sChIJ4S8IFXc40i0RU3Xt_p6QQQc?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Villa Cendrawasih</t>
+          <t>The Kasih Villas and Spa</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>(27)</t>
+          <t>(188)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -2923,35 +2955,35 @@
           <t>Villa</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Jalan Cendrawasih No. 135 Batubelig</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Upscale hotel offering villas with pools</t>
+        </is>
+      </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Cendrawasih/data=!4m7!3m6!1s0x2dd2476ca52b8b4d:0x87ea394eac978c79!8m2!3d-8.6758584!4d115.1497808!16s%2Fg%2F1q5gr66s3!19sChIJTYsrpWxH0i0ReYyXrE456oc?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/The+Kasih+Villas+and+Spa/data=!4m10!3m9!1s0x2dd246d8dfa9591f:0x1cd94a7ad6709570!5m2!4m1!1i2!8m2!3d-8.6958734!4d115.1724346!16s%2Fg%2F11b6ljydg7!19sChIJH1mp39hG0i0RcJVw1npK2Rw?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Villa Joglo</t>
+          <t>Hevea Villas</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>(6)</t>
+          <t>(48)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -2961,96 +2993,108 @@
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Upscale villas with chefs &amp; butlers</t>
+        </is>
+      </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Joglo/data=!4m10!3m9!1s0x2dd2471774d690bf:0x51a7bf337725cb75!5m2!4m1!1i2!8m2!3d-8.6828842!4d115.1620355!16s%2Fg%2F11cmzgrylt!19sChIJv5DWdBdH0i0RdcsldzO_p1E?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Hevea+Villas/data=!4m10!3m9!1s0x2dd247199a4bd35d:0x2d278835c6f3304d!5m2!4m1!1i2!8m2!3d-8.6862796!4d115.1618431!16s%2Fg%2F1pyqngql2!19sChIJXdNLmhlH0i0RTTDzxjWIJy0?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>The Light Villa</t>
+          <t>Villa Coco</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>(74)</t>
+          <t>(187)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Villa</t>
+          <t>3-star hotel</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Refined property with a poolside bar</t>
+        </is>
+      </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/The+Light+Villa/data=!4m10!3m9!1s0x2dd247385ddb5555:0x88f94e2be785fd24!5m2!4m1!1i2!8m2!3d-8.6744399!4d115.1744893!16s%2Fg%2F11clw1f8k6!19sChIJVVXbXThH0i0RJP2F5ytO-Yg?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Coco/data=!4m10!3m9!1s0x2dd2477b3e7827b5:0x3838cb9dbf47e3bf!5m2!4m1!1i2!8m2!3d-8.6961234!4d115.1650482!16s%2Fg%2F1tgv93dz!19sChIJtSd4PntH0i0Rv-NHv53LODg?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Bali Akasa Villa</t>
+          <t>Noku Beach House</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>(6)</t>
+          <t>(118)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Villa</t>
+          <t>5-star hotel</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Chic beachside pick with a pool</t>
+        </is>
+      </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Bali+Akasa+Villa/data=!4m10!3m9!1s0x2dd247879f5feb3b:0x747e1cbf029425ab!5m2!4m1!1i2!8m2!3d-8.6815817!4d115.1718613!16s%2Fg%2F11s166zfh_!19sChIJO-tfn4dH0i0RqyWUAr8cfnQ?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Noku+Beach+House/data=!4m10!3m9!1s0x2dd247225c1e3677:0x8d198ce023b56b63!5m2!4m1!1i2!8m2!3d-8.6908984!4d115.157784!16s%2Fg%2F1tk40rb1!19sChIJdzYeXCJH0i0RY2u1I-CMGY0?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Villa Adasa</t>
+          <t>Villa Jajaliluna</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>(10)</t>
+          <t>(24)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -3059,35 +3103,31 @@
           <t>Villa</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Jl. Kayu Aya Jl. Astinapura</t>
-        </is>
-      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Adasa/data=!4m7!3m6!1s0x2dd24711e4d8e991:0x2687cb9769636c9!8m2!3d-8.6826016!4d115.1550154!16s%2Fg%2F1q5gpzbwp!19sChIJkenY5BFH0i0RyTaWdrl8aAI?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Jajaliluna/data=!4m10!3m9!1s0x2dd247104a21d83d:0x7746b50490bbc7f6!5m2!4m1!1i2!8m2!3d-8.6853977!4d115.1550932!16s%2Fg%2F1pzsqtvr6!19sChIJPdghShBH0i0R9se7kAS1Rnc?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Villa Umah Kupu Kupu 2</t>
+          <t>Villa Canggu</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>(18)</t>
+          <t>(56)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -3096,35 +3136,39 @@
           <t>Villa</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Jl. Nelayan Banjar Canggu Tua No.12</t>
+        </is>
+      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Casual pick offering 2 villas with pools</t>
+          <t>Chic villas set near the beach</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Umah+Kupu+Kupu+2/data=!4m10!3m9!1s0x2dd247183d07f415:0x4d6d8ecd6ffa4474!5m2!4m1!1i2!8m2!3d-8.6843816!4d115.163309!16s%2Fg%2F1ptxvlv6b!19sChIJFfQHPRhH0i0RdET6b82ObU0?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Canggu/data=!4m7!3m6!1s0x2dd247869c5c9435:0xef425a60001f463c!8m2!3d-8.6606424!4d115.1335561!16s%2Fg%2F11b73k_tjd!19sChIJNZRcnIZH0i0RPEYfAGBaQu8?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Annupuri Villas Bali</t>
+          <t>Villa Mia Dua, Seminyak</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>(98)</t>
+          <t>(16)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -3133,124 +3177,120 @@
           <t>Villa</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Gg. Kahyangan</t>
+        </is>
+      </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Annupuri+Villas+Bali/data=!4m10!3m9!1s0x2dd2397d42bb9573:0xad4278c19d77da5b!5m2!4m1!1i2!8m2!3d-8.6127792!4d115.1193254!16s%2Fg%2F11f9w50mz1!19sChIJc5W7Qn050i0RW9p3ncF4Qq0?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Mia+Dua,+Seminyak/data=!4m7!3m6!1s0x2dd2473053228099:0x824b56d4fad0a75!8m2!3d-8.6867123!4d115.1622424!16s%2Fg%2F11pd56df8x!19sChIJmYAiUzBH0i0RdQqtT221JAg?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Eight Palms Villa</t>
+          <t>Samabe Bali Suites &amp; Villas</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>(93)</t>
+          <t>(1,273)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Villa</t>
+          <t>5-star hotel</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>High-end lodging with a private beach</t>
+        </is>
+      </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Eight+Palms+Villa/data=!4m10!3m9!1s0x2dd2476896eae159:0x6a99e855da6e9469!5m2!4m1!1i2!8m2!3d-8.7021048!4d115.173687!16s%2Fg%2F11qy_7wcb3!19sChIJWeHqlmhH0i0RaZRu2lXomWo?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Samabe+Bali+Suites+%26+Villas/data=!4m10!3m9!1s0x2dd25c953736295d:0x8b2e43d515b1e93e!5m2!4m1!1i2!8m2!3d-8.8335762!4d115.2116751!16s%2Fg%2F1pzsb54p_!19sChIJXSk2N5Vc0i0RPumxFdVDLos?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Villa Ultima</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>(8)</t>
-        </is>
-      </c>
+          <t>Franella Villa</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Villa</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Jl. Mertasari No.3, Seminyak, Kuta</t>
-        </is>
-      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Ultima/data=!4m7!3m6!1s0x2dd24710bbbee589:0xc817933ceef0b8a0!8m2!3d-8.6836753!4d115.1589361!16s%2Fg%2F11btvg8vl3!19sChIJieW-uxBH0i0RoLjw7jyTF8g?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Franella+Villa/data=!4m7!3m6!1s0x2dd247227df4d6c9:0x1c64bc457b731b69!8m2!3d-8.670088!4d115.1561451!16s%2Fg%2F11sr7sv8wh!19sChIJydb0fSJH0i0RaRtze0W8ZBw?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Villa Banyu</t>
+          <t>The Santai</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>(19)</t>
+          <t>(345)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Villa</t>
+          <t>5-star hotel</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Luxury villa hotel with Asian dining</t>
+        </is>
+      </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Banyu/data=!4m10!3m9!1s0x2dd24716fef14fb1:0x2759e8d8e105b74d!5m2!4m1!1i2!8m2!3d-8.68142!4d115.16198!16s%2Fg%2F1q66ybx82!19sChIJsU_x_hZH0i0RTbcF4djoWSc?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/The+Santai/data=!4m10!3m9!1s0x2dd2389db2bc98b7:0x19ba3f5b2330f3b4!5m2!4m1!1i2!8m2!3d-8.6516005!4d115.1571072!16s%2Fg%2F11b6b5l88m!19sChIJt5i8sp040i0RtPMwI1s_uhk?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>The Vie Villa - 5 Bedroom Family Villa in Legian Bali</t>
+          <t>Villa Chocolat</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3260,7 +3300,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>(113)</t>
+          <t>(27)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -3273,27 +3313,27 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/The+Vie+Villa+-+5+Bedroom+Family+Villa+in+Legian+Bali/data=!4m10!3m9!1s0x2dd246d97d67106d:0xc9dcf2a90d8a4f68!5m2!4m1!1i2!8m2!3d-8.6981886!4d115.1733575!16s%2Fg%2F11h1s3k24!19sChIJbRBnfdlG0i0RaE-KDany3Mk?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Chocolat/data=!4m10!3m9!1s0x2dd2471a279c8b73:0x2f206662cc6c5f33!5m2!4m1!1i2!8m2!3d-8.6862426!4d115.1600396!16s%2Fg%2F1pzrz2pd5!19sChIJc4ucJxpH0i0RM19szGJmIC8?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>The Club Villas</t>
+          <t>Villa Smilla</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>(151)</t>
+          <t>(18)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -3303,24 +3343,20 @@
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>High-end lodging with refined villas</t>
-        </is>
-      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/The+Club+Villas/data=!4m10!3m9!1s0x2dd2471a1a49f481:0x1cf28da9254ddcd1!5m2!4m1!1i2!8m2!3d-8.6851768!4d115.1595077!16s%2Fg%2F1tdkzzpg!19sChIJgfRJGhpH0i0R0dxNJamN8hw?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Smilla/data=!4m10!3m9!1s0x2dd247fb5bc14a6b:0x2f1e7109a1d568dd!5m2!4m1!1i2!8m2!3d-8.6881397!4d115.1613817!16s%2Fg%2F11g0mv9lwm!19sChIJa0rBW_tH0i0R3WjVoQlxHi8?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>HK Villa Bali</t>
+          <t>Senang villa</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3330,7 +3366,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>(76)</t>
+          <t>(18)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -3343,128 +3379,112 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/HK+Villa+Bali/data=!4m10!3m9!1s0x2dd246db8276dfab:0x4d6b401d8cdfe17a!5m2!4m1!1i2!8m2!3d-8.7011564!4d115.1716188!16s%2Fg%2F11bw51s8zg!19sChIJq992gttG0i0ReuHfjB1Aa00?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Senang+villa/data=!4m10!3m9!1s0x2dd2473e1de03cf5:0x7d9aab7bd28df259!5m2!4m1!1i2!8m2!3d-8.6785625!4d115.1654375!16s%2Fg%2F11f4wv03qq!19sChIJ9TzgHT5H0i0RWfKN0nurmn0?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Villa Kubu Seminyak</t>
+          <t>Villa Daun Canggu</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>(248)</t>
+          <t>(12)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>4-star hotel</t>
+          <t>Villa</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Tranquil resort with villas &amp; a spa</t>
-        </is>
-      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Kubu+Seminyak/data=!4m10!3m9!1s0x2dd24720ab8352a3:0x77cc4b9ae01d7ad1!5m2!4m1!1i2!8m2!3d-8.6935726!4d115.1708508!16s%2Fg%2F1td80cgr!19sChIJo1KDqyBH0i0R0Xod4JpLzHc?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Daun+Canggu/data=!4m10!3m9!1s0x2dd239ffc12a4785:0x75f118d2191cf341!5m2!4m1!1i2!8m2!3d-8.6331951!4d115.1384737!16s%2Fg%2F11j356ff8g!19sChIJhUcqwf850i0RQfMcGdIY8XU?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Villa Seminyak Estate &amp; Spa by Astadala</t>
+          <t>Moritz Palm Villas</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>(652)</t>
+          <t>(8)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>4-star hotel</t>
+          <t>Villa</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Upscale spa hotel with posh villas</t>
-        </is>
-      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Seminyak+Estate+%26+Spa+by+Astadala/data=!4m10!3m9!1s0x2dd23f61d8ada307:0x337841dda89b1d6b!5m2!4m1!1i2!8m2!3d-8.6953792!4d115.1713912!16s%2Fg%2F1thv1nsy!19sChIJB6Ot2GE_0i0Rax2bqN1BeDM?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Moritz+Palm+Villas/data=!4m10!3m9!1s0x2dd25bd0d3d36d3b:0xb30c3f718ba4e0c4!5m2!4m1!1i2!8m2!3d-8.8434811!4d115.1727715!16s%2Fg%2F11pcvfn2s4!19sChIJO23T09Bb0i0RxOCki3E_DLM?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Beautiful Bali Villas</t>
+          <t>Villa Raquel</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>(261)</t>
+          <t>(8)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>4-star hotel</t>
-        </is>
-      </c>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Polished villas with private pools</t>
-        </is>
-      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Beautiful+Bali+Villas/data=!4m10!3m9!1s0x2dd246c496623433:0xb310327bbee0856a!5m2!4m1!1i2!8m2!3d-8.7048341!4d115.1730192!16s%2Fg%2F1q6d35m8t!19sChIJMzRilsRG0i0RaoXgvnsyELM?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Raquel/data=!4m10!3m9!1s0x2dd24716fe1fda5b:0x9e813d89f6e37f77!5m2!4m1!1i2!8m2!3d-8.6825558!4d115.1600711!16s%2Fg%2F11c53d4y4c!19sChIJW9of_hZH0i0Rd3_j9ok9gZ4?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Aqilah Villa</t>
+          <t>Villa Nala</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3474,7 +3494,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>(90)</t>
+          <t>(14)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -3487,17 +3507,17 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Aqilah+Villa/data=!4m10!3m9!1s0x2dd2474bf00aae57:0x52aef7e463e6fbab!5m2!4m1!1i2!8m2!3d-8.7018952!4d115.1771864!16s%2Fg%2F11fj3wwnlx!19sChIJV64K8EtH0i0Rq_vmY-T3rlI?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Nala/data=!4m10!3m9!1s0x2dd247f16d1a763b:0xb2637dbec6b08da1!5m2!4m1!1i2!8m2!3d-8.6877211!4d115.1618795!16s%2Fg%2F11fcq_d1vd!19sChIJO3YabfFH0i0RoY2wxr59Y7I?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>The Elysian Villas Resort</t>
+          <t>Villa Jamu</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3507,81 +3527,77 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>(235)</t>
+          <t>(6)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>5-star hotel</t>
+          <t>Villa</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Posh hotel with warm villas &amp; a pool</t>
-        </is>
-      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/The+Elysian+Villas+Resort/data=!4m10!3m9!1s0x2dd2471ba55a710f:0xed01d14e78e14ef1!5m2!4m1!1i2!8m2!3d-8.6880753!4d115.1578977!16s%2Fg%2F1tcx99h5!19sChIJD3FapRtH0i0R8U7heE7RAe0?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Jamu/data=!4m10!3m9!1s0x2dd247ed6f9d242d:0x6488621fabae2c81!5m2!4m1!1i2!8m2!3d-8.6921808!4d115.166104!16s%2Fg%2F11p67xr434!19sChIJLSSdb-1H0i0RgSyuqx9iiGQ?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Asa Bali Luxury Villas &amp; Spa</t>
+          <t>Villa Kala</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>(285)</t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>4-star hotel</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Elegant resort with a restaurant &amp; a spa</t>
-        </is>
-      </c>
+          <t>Villa</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Jl. Gn. Tangkuban Perahu</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Asa+Bali+Luxury+Villas+%26+Spa/data=!4m10!3m9!1s0x2dd247264cf3ac1b:0xc29ff3eee6639d7d!5m2!4m1!1i2!8m2!3d-8.69105!4d115.174987!16s%2Fg%2F1pv61n19k!19sChIJG6zzTCZH0i0RfZ1j5u7zn8I?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Kala/data=!4m7!3m6!1s0x2dd24701f0c15b1d:0xd52ff22a372e76fb!8m2!3d-8.6810836!4d115.1743786!16s%2Fg%2F11p504f9z1!19sChIJHVvB8AFH0i0R-3YuNyryL9U?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Villa Gladak</t>
+          <t>Villa Bali Bali</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>(21)</t>
+          <t>(16)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -3590,25 +3606,41 @@
           <t>Villa</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Jl. Dukuh Indah Banjar Semer No.52</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Luxe villas with pools &amp; gardens</t>
+        </is>
+      </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Gladak/data=!4m10!3m9!1s0x2dd24717500ce131:0xc0b4497f9264cf1a!5m2!4m1!1i2!8m2!3d-8.6833503!4d115.1606756!16s%2Fg%2F11csqqsqmz!19sChIJMeEMUBdH0i0RGs9kkn9JtMA?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Bali+Bali/data=!4m7!3m6!1s0x2dd2476865ed38bf:0x441384aed4813dff!8m2!3d-8.6651536!4d115.1629794!16s%2Fg%2F1q629jqpy!19sChIJvzjtZWhH0i0R_z2B1K6EE0Q?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Villa Kita II - Summer House</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
+          <t>Villa Mia Satu, Seminyak</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>(22)</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
@@ -3617,33 +3649,33 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>8566+V6F, Jl. Sari Temuku Gg. Sandat</t>
+          <t>Jl. Raya Basangkasa gg. dewata</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Kita+II+-+Summer+House/data=!4m7!3m6!1s0x2dd247d81ffbf1c5:0x42e52dcd825b68cf!8m2!3d-8.6878093!4d115.1605615!16s%2Fg%2F11lh4_ttw9!19sChIJxfH7H9hH0i0Rz2hbgs0t5UI?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Mia+Satu,+Seminyak/data=!4m7!3m6!1s0x2dd247228d15d771:0xb1baea0cf7a0346b!8m2!3d-8.6857142!4d115.1664173!16s%2Fg%2F11f4wt2nr3!19sChIJcdcVjSJH0i0RazSg9wzqurE?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Bali Maja Villa</t>
+          <t>Villa Abakoi</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>(4)</t>
+          <t>(20)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -3652,35 +3684,31 @@
           <t>Villa</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Jl. Petitenget Komplek Villa Lumbung No.1000X</t>
-        </is>
-      </c>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Bali+Maja+Villa/data=!4m7!3m6!1s0x2dd24713a01b754f:0x5361a5884a441e5c!8m2!3d-8.6774439!4d115.1573023!16s%2Fg%2F11b7xg34zs!19sChIJT3UboBNH0i0RXB5ESoilYVM?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Abakoi/data=!4m10!3m9!1s0x2dd24718d042e21f:0x78f637f4b189053!5m2!4m1!1i2!8m2!3d-8.6886288!4d115.163067!16s%2Fg%2F11b6hq9_9y!19sChIJH-JC0BhH0i0RU5AYS39jjwc?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Budha Beach Villa - Luxury Private Villas in Seminyak</t>
+          <t>Villa Concetta Seminyak</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>(25)</t>
+          <t>(32)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -3693,60 +3721,64 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Budha+Beach+Villa+-+Luxury+Private+Villas+in+Seminyak/data=!4m10!3m9!1s0x2dd24727309dcef3:0x6afa5a87fedd7fd9!5m2!4m1!1i2!8m2!3d-8.6916587!4d115.172074!16s%2Fg%2F11f10dmbds!19sChIJ886dMCdH0i0R2X_d_oda-mo?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Concetta+Seminyak/data=!4m10!3m9!1s0x2dd2471c0bcf9f97:0xef9fb59ffcdddd14!5m2!4m1!1i2!8m2!3d-8.6896576!4d115.1581026!16s%2Fg%2F11c2pt3z7x!19sChIJl5_PCxxH0i0RFN3d_J-1n-8?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Villa Ke Bali</t>
+          <t>Hu'u Villas Bali</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(94)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Villa</t>
+          <t>5-star hotel</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Chic apartment hotel with private pools</t>
+        </is>
+      </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Ke+Bali/data=!4m10!3m9!1s0x2dd24718cc935afd:0x9f8c5f5b145453f!5m2!4m1!1i2!8m2!3d-8.689002!4d115.163259!16s%2Fg%2F1ptwg6vtx!19sChIJ_VqTzBhH0i0RP0VFsfXF-Ak?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Hu'u+Villas+Bali/data=!4m10!3m9!1s0x2dd2470e0f343bf5:0x802d548b53993b9c!5m2!4m1!1i2!8m2!3d-8.6800852!4d115.1526673!16s%2Fg%2F11b60rrrs7!19sChIJ9Ts0Dw5H0i0RnDuZU4tULYA?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Villa Belle</t>
+          <t>Villa De Suma</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>(5)</t>
+          <t>(13)</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -3759,554 +3791,81 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Villa+Belle/data=!4m10!3m9!1s0x2dd247142650d80d:0x5cd0f78b373cc342!5m2!4m1!1i2!8m2!3d-8.6779817!4d115.1608245!16s%2Fg%2F11c3k9q8rh!19sChIJDdhQJhRH0i0RQsM8N4v30Fw?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+De+Suma/data=!4m10!3m9!1s0x2dd24711d770e7f1:0xa2f4c496647100a9!5m2!4m1!1i2!8m2!3d-8.6830787!4d115.1553221!16s%2Fg%2F1jkywc8d6!19sChIJ8edw1xFH0i0RqQBxZJbE9KI?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Franella Villa</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
+          <t>Villa Cendrawasih</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>(27)</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Villa</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Jalan Cendrawasih No. 135 Batubelig</t>
+        </is>
+      </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Franella+Villa/data=!4m7!3m6!1s0x2dd247227df4d6c9:0x1c64bc457b731b69!8m2!3d-8.670088!4d115.1561451!16s%2Fg%2F11sr7sv8wh!19sChIJydb0fSJH0i0RaRtze0W8ZBw?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Villa+Cendrawasih/data=!4m7!3m6!1s0x2dd2476ca52b8b4d:0x87ea394eac978c79!8m2!3d-8.6758584!4d115.1497808!16s%2Fg%2F1q5gr66s3!19sChIJTYsrpWxH0i0ReYyXrE456oc?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Senang villa</t>
+          <t>The Seminyak Suite Private Villa</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>(18)</t>
+          <t>(216)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Villa</t>
+          <t>4-star hotel</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Upscale villas with pools, plus a spa</t>
+        </is>
+      </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Senang+villa/data=!4m7!3m6!1s0x2dd2473e1de03cf5:0x7d9aab7bd28df259!8m2!3d-8.6785625!4d115.1654375!16s%2Fg%2F11f4wv03qq!19sChIJ9TzgHT5H0i0RWfKN0nurmn0?authuser=0&amp;hl=en&amp;rclk=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Villa Coco</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>4.4</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>(187)</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>3-star hotel</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Jl. Arjuna Gg. Villa Coco</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Refined property with a poolside bar</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Coco/data=!4m7!3m6!1s0x2dd2477b3e7827b5:0x3838cb9dbf47e3bf!8m2!3d-8.6961234!4d115.1650482!16s%2Fg%2F1tgv93dz!19sChIJtSd4PntH0i0Rv-NHv53LODg?authuser=0&amp;hl=en&amp;rclk=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Villa Juna</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>(6)</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Villa</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>8566+RPX, Jl. Lb. Sari</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Juna/data=!4m7!3m6!1s0x2dd2471bfcc99b3d:0x1fabae8f34bfebdf!8m2!3d-8.6878752!4d115.1618544!16s%2Fg%2F11fcql2q76!19sChIJPZvJ_BtH0i0R3-u_NI-uqx8?authuser=0&amp;hl=en&amp;rclk=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>MasBro ART Villas</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>(100)</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>4-star hotel</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>Gg. Arjuna Jl. Sari Dewi</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MasBro+ART+Villas/data=!4m7!3m6!1s0x2dd2473fcbb9cd23:0xa80d06e6cac4187e!8m2!3d-8.688517!4d115.1593143!16s%2Fg%2F1hm5lprnx!19sChIJI825yz9H0i0RfhjEyuYGDag?authuser=0&amp;hl=en&amp;rclk=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>VILLA LILIS</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>(18)</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Villa</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>85C9+3X2, Gg. Lima Dua</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/VILLA+LILIS/data=!4m7!3m6!1s0x2dd2473c14c6117b:0xb1394f86acbde550!8m2!3d-8.679859!4d115.169904!16s%2Fg%2F11f1yjkprc!19sChIJexHGFDxH0i0RUOW9rIZPObE?authuser=0&amp;hl=en&amp;rclk=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Villa Santai</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>(15)</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>4-star hotel</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Villa Santai, Jl. Drupadi gang Damai</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Santai/data=!4m7!3m6!1s0x2dd24718b49e506f:0xe78610eecdd832af!8m2!3d-8.6889509!4d115.164083!16s%2Fg%2F12hpg369z!19sChIJb1CetBhH0i0RrzLYze4Qhuc?authuser=0&amp;hl=en&amp;rclk=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Villa Mia Satu, Seminyak</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>(22)</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Villa</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Jl. Raya Basangkasa gg. dewata</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Mia+Satu,+Seminyak/data=!4m7!3m6!1s0x2dd247228d15d771:0xb1baea0cf7a0346b!8m2!3d-8.6857142!4d115.1664173!16s%2Fg%2F11f4wt2nr3!19sChIJcdcVjSJH0i0RazSg9wzqurE?authuser=0&amp;hl=en&amp;rclk=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Villa Oost Indies</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>(5)</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Villa</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Jalan Kayu Aya, Gg. Astina Jl. Dyana Pura</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Posh villa with a pool &amp; private staff</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Oost+Indies/data=!4m7!3m6!1s0x2dd247102fe6d483:0xcba889ed176107db!8m2!3d-8.6831345!4d115.153401!16s%2Fg%2F12hlxtlfv!19sChIJg9TmLxBH0i0R2wdhF-2JqMs?authuser=0&amp;hl=en&amp;rclk=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Yoga Villa</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>(6)</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Villa</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>Jl. Sari Dewi Oberoi No.7</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Yoga+Villa/data=!4m7!3m6!1s0x2dd2479b4eea296f:0x8ef1fff3126dd52f!8m2!3d-8.6876612!4d115.1560696!16s%2Fg%2F11gwl6fcjx!19sChIJbynqTptH0i0RL9VtEvP_8Y4?authuser=0&amp;hl=en&amp;rclk=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Happy Together by Villa Kresna</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>(93)</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>4-star hotel</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Jl. Sari Dewi No.17</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Modern lodging, a pool &amp; casual dining</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Happy+Together+by+Villa+Kresna/data=!4m7!3m6!1s0x2dd247195de7f945:0xc5b642fff217070c!8m2!3d-8.6880404!4d115.1597995!16s%2Fg%2F11xtwpkd1!19sChIJRfnnXRlH0i0RDAcX8v9CtsU?authuser=0&amp;hl=en&amp;rclk=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Villa Anna Seminyak</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>(14)</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Villa</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>Jl. Kunti II No.8</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Anna+Seminyak/data=!4m7!3m6!1s0x2dd24708b2abbcd1:0xbfbd4c80e2237a4c!8m2!3d-8.6872152!4d115.1757603!16s%2Fg%2F11h64dhhkb!19sChIJ0byrsghH0i0RTHoj4oBMvb8?authuser=0&amp;hl=en&amp;rclk=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Villa Anam</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>(27)</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Villa</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>The Jero Complex, Jl. Drupadi No.N.1</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Anam/data=!4m7!3m6!1s0x2dd24718c86c523b:0x45934e16728e6e9e!8m2!3d-8.6885305!4d115.1637206!16s%2Fg%2F11fzvv4vpr!19sChIJO1JsyBhH0i0Rnm6OchZOk0U?authuser=0&amp;hl=en&amp;rclk=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>iori Villa</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>(9)</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Villa</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Jl. Intan Permai Jl. Intan Permai Gg. III No.99</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/iori+Villa/data=!4m7!3m6!1s0x2dd2470390b9838b:0xabfa5243aebd4df5!8m2!3d-8.6734732!4d115.1705169!16s%2Fg%2F11fsrffjwv!19sChIJi4O5kANH0i0R9U29rkNS-qs?authuser=0&amp;hl=en&amp;rclk=1</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Villa Soul</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>(4)</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Villa</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>Gg. Kresna Jl. Sari Dewi</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Soul/data=!4m7!3m6!1s0x2dd247ba2fd582ab:0xbd768d9a09f43450!8m2!3d-8.6879705!4d115.1591898!16s%2Fg%2F11qyq4h25d!19sChIJq4LVL7pH0i0RUDT0CZqNdr0?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/The+Seminyak+Suite+Private+Villa/data=!4m10!3m9!1s0x2dd246dee2eeb461:0x88ff2a4b23b2eea6!5m2!4m1!1i2!8m2!3d-8.6951857!4d115.1676286!16s%2Fg%2F1tgw2g2m!19sChIJYbTu4t5G0i0Rpu6yI0sq_4g?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
